--- a/public/assets/Biomas.xlsx
+++ b/public/assets/Biomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niels\OneDrive\Escritorio\Universidad\Lenguajes_y_paradigmas\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7196E49C-F650-4B65-8B0D-6998B612B8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94DCB27-36F3-4DEE-9DAE-26553F3BAF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60339709-F1C1-4501-BAA3-AE61BE4759C4}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{60339709-F1C1-4501-BAA3-AE61BE4759C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="52">
   <si>
     <t>Agua profunda</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Tundra</t>
-  </si>
-  <si>
-    <t>Desierto costero</t>
   </si>
   <si>
     <t>Bajo relieve</t>
@@ -582,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7BC7B0-A0AC-4D0B-9583-1782196FE39C}">
   <dimension ref="D2:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="I154" workbookViewId="0">
+      <selection activeCell="P87" sqref="P87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -648,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -662,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -676,7 +673,7 @@
         <v>16</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -690,7 +687,7 @@
         <v>17</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -704,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -718,7 +715,7 @@
         <v>14</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -732,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -746,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -760,7 +757,7 @@
         <v>17</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1054,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1068,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1082,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1096,7 +1093,7 @@
         <v>16</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1110,7 +1107,7 @@
         <v>17</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1124,7 +1121,7 @@
         <v>12</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1138,7 +1135,7 @@
         <v>14</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1152,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1166,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1180,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1194,7 +1191,7 @@
         <v>12</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1208,7 +1205,7 @@
         <v>14</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.3">
@@ -1222,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1236,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1250,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1264,7 +1261,7 @@
         <v>12</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1278,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1292,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1306,7 +1303,7 @@
         <v>16</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1320,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1334,7 +1331,7 @@
         <v>12</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1348,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.3">
@@ -1362,7 +1359,7 @@
         <v>15</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1376,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1390,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1404,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1418,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1432,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1446,7 +1443,7 @@
         <v>16</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1460,7 +1457,7 @@
         <v>17</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1474,7 +1471,7 @@
         <v>12</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1488,7 +1485,7 @@
         <v>14</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1502,7 +1499,7 @@
         <v>15</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1516,7 +1513,7 @@
         <v>16</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1530,7 +1527,7 @@
         <v>17</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1544,7 +1541,7 @@
         <v>12</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1558,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1572,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1586,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1614,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1628,7 +1625,7 @@
         <v>14</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1642,7 +1639,7 @@
         <v>15</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1656,7 +1653,7 @@
         <v>16</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1684,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1796,7 +1793,7 @@
         <v>16</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1810,7 +1807,7 @@
         <v>17</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1824,7 +1821,7 @@
         <v>12</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1838,7 +1835,7 @@
         <v>14</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.3">
@@ -1852,7 +1849,7 @@
         <v>15</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1866,7 +1863,7 @@
         <v>16</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1880,7 +1877,7 @@
         <v>17</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1894,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1908,7 +1905,7 @@
         <v>14</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.3">
@@ -1922,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1964,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1978,7 +1975,7 @@
         <v>14</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -1992,7 +1989,7 @@
         <v>15</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2006,7 +2003,7 @@
         <v>16</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2020,12 +2017,12 @@
         <v>17</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L103" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>11</v>
@@ -2034,40 +2031,40 @@
         <v>12</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O104" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O105" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="106" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L106" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>11</v>
@@ -2076,12 +2073,12 @@
         <v>16</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L107" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>11</v>
@@ -2090,54 +2087,54 @@
         <v>17</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L108" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O108" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="109" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L109" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O109" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L110" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O110" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="111" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L111" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>18</v>
@@ -2146,12 +2143,12 @@
         <v>16</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L112" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>18</v>
@@ -2160,12 +2157,12 @@
         <v>17</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L113" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>15</v>
@@ -2174,12 +2171,12 @@
         <v>12</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L114" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>15</v>
@@ -2188,12 +2185,12 @@
         <v>14</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L115" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>15</v>
@@ -2202,12 +2199,12 @@
         <v>15</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L116" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>15</v>
@@ -2216,12 +2213,12 @@
         <v>16</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L117" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>15</v>
@@ -2230,12 +2227,12 @@
         <v>17</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L118" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>20</v>
@@ -2244,12 +2241,12 @@
         <v>12</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L119" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>20</v>
@@ -2258,12 +2255,12 @@
         <v>14</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L120" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>20</v>
@@ -2272,12 +2269,12 @@
         <v>15</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L121" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>20</v>
@@ -2286,12 +2283,12 @@
         <v>16</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L122" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>20</v>
@@ -2300,12 +2297,12 @@
         <v>17</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L123" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>22</v>
@@ -2314,12 +2311,12 @@
         <v>12</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L124" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>22</v>
@@ -2328,12 +2325,12 @@
         <v>14</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L125" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>22</v>
@@ -2342,12 +2339,12 @@
         <v>15</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L126" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>22</v>
@@ -2356,12 +2353,12 @@
         <v>16</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L127" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>22</v>
@@ -2370,12 +2367,12 @@
         <v>17</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L128" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>11</v>
@@ -2384,12 +2381,12 @@
         <v>12</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L129" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>11</v>
@@ -2398,12 +2395,12 @@
         <v>14</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L130" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M130" s="2" t="s">
         <v>11</v>
@@ -2412,40 +2409,40 @@
         <v>15</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O131" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="132" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O132" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="133" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L133" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>18</v>
@@ -2454,12 +2451,12 @@
         <v>12</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L134" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>18</v>
@@ -2468,54 +2465,54 @@
         <v>14</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O135" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="M135" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="136" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O136" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="137" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L137" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O137" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O137" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="138" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L138" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>15</v>
@@ -2524,12 +2521,12 @@
         <v>12</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L139" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M139" s="2" t="s">
         <v>15</v>
@@ -2538,12 +2535,12 @@
         <v>14</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L140" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>15</v>
@@ -2552,12 +2549,12 @@
         <v>15</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L141" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M141" s="2" t="s">
         <v>15</v>
@@ -2566,12 +2563,12 @@
         <v>16</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L142" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M142" s="2" t="s">
         <v>15</v>
@@ -2580,12 +2577,12 @@
         <v>17</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L143" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M143" s="2" t="s">
         <v>20</v>
@@ -2594,12 +2591,12 @@
         <v>12</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L144" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M144" s="2" t="s">
         <v>20</v>
@@ -2608,12 +2605,12 @@
         <v>14</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L145" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>20</v>
@@ -2622,12 +2619,12 @@
         <v>15</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L146" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M146" s="2" t="s">
         <v>20</v>
@@ -2636,12 +2633,12 @@
         <v>16</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L147" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M147" s="2" t="s">
         <v>20</v>
@@ -2650,12 +2647,12 @@
         <v>17</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L148" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>22</v>
@@ -2664,12 +2661,12 @@
         <v>12</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L149" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M149" s="2" t="s">
         <v>22</v>
@@ -2678,12 +2675,12 @@
         <v>14</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L150" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M150" s="2" t="s">
         <v>22</v>
@@ -2692,12 +2689,12 @@
         <v>15</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L151" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M151" s="2" t="s">
         <v>22</v>
@@ -2706,12 +2703,12 @@
         <v>16</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L152" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M152" s="2" t="s">
         <v>22</v>
@@ -2720,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2734,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2748,7 +2745,7 @@
         <v>14</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -2762,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2776,7 +2773,7 @@
         <v>16</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2790,7 +2787,7 @@
         <v>17</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2804,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2818,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -2832,7 +2829,7 @@
         <v>15</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2846,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2860,7 +2857,7 @@
         <v>17</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2874,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2888,7 +2885,7 @@
         <v>14</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -2902,7 +2899,7 @@
         <v>15</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2916,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2930,7 +2927,7 @@
         <v>17</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2944,7 +2941,7 @@
         <v>12</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2958,7 +2955,7 @@
         <v>14</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="12:15" x14ac:dyDescent="0.3">
@@ -2972,7 +2969,7 @@
         <v>15</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2986,7 +2983,7 @@
         <v>16</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3000,7 +2997,7 @@
         <v>17</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3014,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3028,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -3042,7 +3039,7 @@
         <v>15</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3056,7 +3053,7 @@
         <v>16</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3070,7 +3067,7 @@
         <v>17</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/Biomas.xlsx
+++ b/public/assets/Biomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niels\OneDrive\Escritorio\Universidad\Lenguajes_y_paradigmas\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94DCB27-36F3-4DEE-9DAE-26553F3BAF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EB391D-95A3-4D2A-AD1E-BCFECECD6D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{60339709-F1C1-4501-BAA3-AE61BE4759C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60339709-F1C1-4501-BAA3-AE61BE4759C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7BC7B0-A0AC-4D0B-9583-1782196FE39C}">
   <dimension ref="D2:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I154" workbookViewId="0">
-      <selection activeCell="P87" sqref="P87"/>
+    <sheetView tabSelected="1" topLeftCell="H152" workbookViewId="0">
+      <selection activeCell="Q158" sqref="Q158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1961,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2801,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
